--- a/_data/ADAUSDT_2h.xlsx
+++ b/_data/ADAUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1286 @@
         <v>977073</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>0.3513</v>
+      </c>
+      <c r="C1169">
+        <v>0.3546</v>
+      </c>
+      <c r="D1169">
+        <v>0.3461</v>
+      </c>
+      <c r="E1169">
+        <v>0.3519</v>
+      </c>
+      <c r="F1169">
+        <v>24333063.7</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>0.352</v>
+      </c>
+      <c r="C1170">
+        <v>0.3543</v>
+      </c>
+      <c r="D1170">
+        <v>0.3383</v>
+      </c>
+      <c r="E1170">
+        <v>0.34</v>
+      </c>
+      <c r="F1170">
+        <v>23508445.5</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>0.34</v>
+      </c>
+      <c r="C1171">
+        <v>0.3436</v>
+      </c>
+      <c r="D1171">
+        <v>0.3373</v>
+      </c>
+      <c r="E1171">
+        <v>0.343</v>
+      </c>
+      <c r="F1171">
+        <v>10650201.5</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>0.3429</v>
+      </c>
+      <c r="C1172">
+        <v>0.3493</v>
+      </c>
+      <c r="D1172">
+        <v>0.3426</v>
+      </c>
+      <c r="E1172">
+        <v>0.3455</v>
+      </c>
+      <c r="F1172">
+        <v>5988210.1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>0.3455</v>
+      </c>
+      <c r="C1173">
+        <v>0.3479</v>
+      </c>
+      <c r="D1173">
+        <v>0.3455</v>
+      </c>
+      <c r="E1173">
+        <v>0.3469</v>
+      </c>
+      <c r="F1173">
+        <v>1846793.3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>0.3469</v>
+      </c>
+      <c r="C1174">
+        <v>0.3482</v>
+      </c>
+      <c r="D1174">
+        <v>0.3465</v>
+      </c>
+      <c r="E1174">
+        <v>0.3469</v>
+      </c>
+      <c r="F1174">
+        <v>2579506.8</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>0.3469</v>
+      </c>
+      <c r="C1175">
+        <v>0.3485</v>
+      </c>
+      <c r="D1175">
+        <v>0.3458</v>
+      </c>
+      <c r="E1175">
+        <v>0.3466</v>
+      </c>
+      <c r="F1175">
+        <v>2661263.8</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>0.3467</v>
+      </c>
+      <c r="C1176">
+        <v>0.3477</v>
+      </c>
+      <c r="D1176">
+        <v>0.3454</v>
+      </c>
+      <c r="E1176">
+        <v>0.3475</v>
+      </c>
+      <c r="F1176">
+        <v>2132374.7</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>0.3474</v>
+      </c>
+      <c r="C1177">
+        <v>0.3504</v>
+      </c>
+      <c r="D1177">
+        <v>0.3474</v>
+      </c>
+      <c r="E1177">
+        <v>0.348</v>
+      </c>
+      <c r="F1177">
+        <v>2663054.2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>0.348</v>
+      </c>
+      <c r="C1178">
+        <v>0.3501</v>
+      </c>
+      <c r="D1178">
+        <v>0.3475</v>
+      </c>
+      <c r="E1178">
+        <v>0.3478</v>
+      </c>
+      <c r="F1178">
+        <v>2498661.6</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>0.3478</v>
+      </c>
+      <c r="C1179">
+        <v>0.3484</v>
+      </c>
+      <c r="D1179">
+        <v>0.3453</v>
+      </c>
+      <c r="E1179">
+        <v>0.3458</v>
+      </c>
+      <c r="F1179">
+        <v>2402320.6</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>0.3458</v>
+      </c>
+      <c r="C1180">
+        <v>0.3495</v>
+      </c>
+      <c r="D1180">
+        <v>0.3454</v>
+      </c>
+      <c r="E1180">
+        <v>0.3481</v>
+      </c>
+      <c r="F1180">
+        <v>2407327.8</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>0.3481</v>
+      </c>
+      <c r="C1181">
+        <v>0.349</v>
+      </c>
+      <c r="D1181">
+        <v>0.3473</v>
+      </c>
+      <c r="E1181">
+        <v>0.3475</v>
+      </c>
+      <c r="F1181">
+        <v>2256718.4</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>0.3475</v>
+      </c>
+      <c r="C1182">
+        <v>0.3496</v>
+      </c>
+      <c r="D1182">
+        <v>0.3471</v>
+      </c>
+      <c r="E1182">
+        <v>0.3492</v>
+      </c>
+      <c r="F1182">
+        <v>2455412.3</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>0.3492</v>
+      </c>
+      <c r="C1183">
+        <v>0.3493</v>
+      </c>
+      <c r="D1183">
+        <v>0.345</v>
+      </c>
+      <c r="E1183">
+        <v>0.3471</v>
+      </c>
+      <c r="F1183">
+        <v>2296348.7</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>0.3469</v>
+      </c>
+      <c r="C1184">
+        <v>0.3486</v>
+      </c>
+      <c r="D1184">
+        <v>0.3455</v>
+      </c>
+      <c r="E1184">
+        <v>0.3468</v>
+      </c>
+      <c r="F1184">
+        <v>2455239.7</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>0.3467</v>
+      </c>
+      <c r="C1185">
+        <v>0.347</v>
+      </c>
+      <c r="D1185">
+        <v>0.3447</v>
+      </c>
+      <c r="E1185">
+        <v>0.3449</v>
+      </c>
+      <c r="F1185">
+        <v>1160812.6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>0.3462</v>
+      </c>
+      <c r="C1186">
+        <v>0.3464</v>
+      </c>
+      <c r="D1186">
+        <v>0.3444</v>
+      </c>
+      <c r="E1186">
+        <v>0.345</v>
+      </c>
+      <c r="F1186">
+        <v>1188086.3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>0.3451</v>
+      </c>
+      <c r="C1187">
+        <v>0.3458</v>
+      </c>
+      <c r="D1187">
+        <v>0.3413</v>
+      </c>
+      <c r="E1187">
+        <v>0.3414</v>
+      </c>
+      <c r="F1187">
+        <v>2784322.5</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>0.3414</v>
+      </c>
+      <c r="C1188">
+        <v>0.3449</v>
+      </c>
+      <c r="D1188">
+        <v>0.3394</v>
+      </c>
+      <c r="E1188">
+        <v>0.3448</v>
+      </c>
+      <c r="F1188">
+        <v>3618684.9</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>0.3449</v>
+      </c>
+      <c r="C1189">
+        <v>0.3449</v>
+      </c>
+      <c r="D1189">
+        <v>0.3393</v>
+      </c>
+      <c r="E1189">
+        <v>0.3402</v>
+      </c>
+      <c r="F1189">
+        <v>3761037.6</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>0.3401</v>
+      </c>
+      <c r="C1190">
+        <v>0.3446</v>
+      </c>
+      <c r="D1190">
+        <v>0.34</v>
+      </c>
+      <c r="E1190">
+        <v>0.3446</v>
+      </c>
+      <c r="F1190">
+        <v>2217267.8</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>0.3446</v>
+      </c>
+      <c r="C1191">
+        <v>0.345</v>
+      </c>
+      <c r="D1191">
+        <v>0.3429</v>
+      </c>
+      <c r="E1191">
+        <v>0.3439</v>
+      </c>
+      <c r="F1191">
+        <v>1562092.2</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>0.3439</v>
+      </c>
+      <c r="C1192">
+        <v>0.344</v>
+      </c>
+      <c r="D1192">
+        <v>0.3403</v>
+      </c>
+      <c r="E1192">
+        <v>0.3432</v>
+      </c>
+      <c r="F1192">
+        <v>3077041.3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>0.3431</v>
+      </c>
+      <c r="C1193">
+        <v>0.3436</v>
+      </c>
+      <c r="D1193">
+        <v>0.3363</v>
+      </c>
+      <c r="E1193">
+        <v>0.3405</v>
+      </c>
+      <c r="F1193">
+        <v>6828323.3</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>0.3406</v>
+      </c>
+      <c r="C1194">
+        <v>0.3416</v>
+      </c>
+      <c r="D1194">
+        <v>0.3351</v>
+      </c>
+      <c r="E1194">
+        <v>0.3403</v>
+      </c>
+      <c r="F1194">
+        <v>8932560.1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>0.3403</v>
+      </c>
+      <c r="C1195">
+        <v>0.3417</v>
+      </c>
+      <c r="D1195">
+        <v>0.3341</v>
+      </c>
+      <c r="E1195">
+        <v>0.3348</v>
+      </c>
+      <c r="F1195">
+        <v>7220129.1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>0.3349</v>
+      </c>
+      <c r="C1196">
+        <v>0.3422</v>
+      </c>
+      <c r="D1196">
+        <v>0.3347</v>
+      </c>
+      <c r="E1196">
+        <v>0.3397</v>
+      </c>
+      <c r="F1196">
+        <v>6474757.6</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>0.3397</v>
+      </c>
+      <c r="C1197">
+        <v>0.3421</v>
+      </c>
+      <c r="D1197">
+        <v>0.3357</v>
+      </c>
+      <c r="E1197">
+        <v>0.3373</v>
+      </c>
+      <c r="F1197">
+        <v>3231814.7</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>0.3374</v>
+      </c>
+      <c r="C1198">
+        <v>0.3378</v>
+      </c>
+      <c r="D1198">
+        <v>0.3267</v>
+      </c>
+      <c r="E1198">
+        <v>0.3311</v>
+      </c>
+      <c r="F1198">
+        <v>14158076.3</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>0.331</v>
+      </c>
+      <c r="C1199">
+        <v>0.3345</v>
+      </c>
+      <c r="D1199">
+        <v>0.3308</v>
+      </c>
+      <c r="E1199">
+        <v>0.3331</v>
+      </c>
+      <c r="F1199">
+        <v>3754763.2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>0.3332</v>
+      </c>
+      <c r="C1200">
+        <v>0.3345</v>
+      </c>
+      <c r="D1200">
+        <v>0.331</v>
+      </c>
+      <c r="E1200">
+        <v>0.3316</v>
+      </c>
+      <c r="F1200">
+        <v>2886182.4</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>0.3315</v>
+      </c>
+      <c r="C1201">
+        <v>0.3316</v>
+      </c>
+      <c r="D1201">
+        <v>0.3271</v>
+      </c>
+      <c r="E1201">
+        <v>0.3301</v>
+      </c>
+      <c r="F1201">
+        <v>5411423.9</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>0.3301</v>
+      </c>
+      <c r="C1202">
+        <v>0.3312</v>
+      </c>
+      <c r="D1202">
+        <v>0.325</v>
+      </c>
+      <c r="E1202">
+        <v>0.3259</v>
+      </c>
+      <c r="F1202">
+        <v>5903645.7</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>0.3259</v>
+      </c>
+      <c r="C1203">
+        <v>0.3327</v>
+      </c>
+      <c r="D1203">
+        <v>0.3253</v>
+      </c>
+      <c r="E1203">
+        <v>0.3322</v>
+      </c>
+      <c r="F1203">
+        <v>13824019.5</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>0.3322</v>
+      </c>
+      <c r="C1204">
+        <v>0.3364</v>
+      </c>
+      <c r="D1204">
+        <v>0.3314</v>
+      </c>
+      <c r="E1204">
+        <v>0.3346</v>
+      </c>
+      <c r="F1204">
+        <v>5705661.6</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>0.3338</v>
+      </c>
+      <c r="C1205">
+        <v>0.3349</v>
+      </c>
+      <c r="D1205">
+        <v>0.3287</v>
+      </c>
+      <c r="E1205">
+        <v>0.3287</v>
+      </c>
+      <c r="F1205">
+        <v>5483505.8</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>0.3287</v>
+      </c>
+      <c r="C1206">
+        <v>0.3339</v>
+      </c>
+      <c r="D1206">
+        <v>0.3269</v>
+      </c>
+      <c r="E1206">
+        <v>0.3325</v>
+      </c>
+      <c r="F1206">
+        <v>9903972.6</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>0.3325</v>
+      </c>
+      <c r="C1207">
+        <v>0.3342</v>
+      </c>
+      <c r="D1207">
+        <v>0.3297</v>
+      </c>
+      <c r="E1207">
+        <v>0.3332</v>
+      </c>
+      <c r="F1207">
+        <v>3418746.4</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>0.3333</v>
+      </c>
+      <c r="C1208">
+        <v>0.3335</v>
+      </c>
+      <c r="D1208">
+        <v>0.3298</v>
+      </c>
+      <c r="E1208">
+        <v>0.3309</v>
+      </c>
+      <c r="F1208">
+        <v>5888111.4</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>0.3309</v>
+      </c>
+      <c r="C1209">
+        <v>0.3374</v>
+      </c>
+      <c r="D1209">
+        <v>0.3303</v>
+      </c>
+      <c r="E1209">
+        <v>0.3364</v>
+      </c>
+      <c r="F1209">
+        <v>4437607.1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>0.3364</v>
+      </c>
+      <c r="C1210">
+        <v>0.337</v>
+      </c>
+      <c r="D1210">
+        <v>0.3347</v>
+      </c>
+      <c r="E1210">
+        <v>0.3362</v>
+      </c>
+      <c r="F1210">
+        <v>3572685</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>0.3362</v>
+      </c>
+      <c r="C1211">
+        <v>0.337</v>
+      </c>
+      <c r="D1211">
+        <v>0.3342</v>
+      </c>
+      <c r="E1211">
+        <v>0.3361</v>
+      </c>
+      <c r="F1211">
+        <v>4897524.4</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>0.336</v>
+      </c>
+      <c r="C1212">
+        <v>0.3398</v>
+      </c>
+      <c r="D1212">
+        <v>0.3348</v>
+      </c>
+      <c r="E1212">
+        <v>0.3351</v>
+      </c>
+      <c r="F1212">
+        <v>5103906.9</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>0.3352</v>
+      </c>
+      <c r="C1213">
+        <v>0.3356</v>
+      </c>
+      <c r="D1213">
+        <v>0.3329</v>
+      </c>
+      <c r="E1213">
+        <v>0.3341</v>
+      </c>
+      <c r="F1213">
+        <v>3223761.9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>0.3341</v>
+      </c>
+      <c r="C1214">
+        <v>0.3341</v>
+      </c>
+      <c r="D1214">
+        <v>0.3318</v>
+      </c>
+      <c r="E1214">
+        <v>0.3334</v>
+      </c>
+      <c r="F1214">
+        <v>3787614.8</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>0.3335</v>
+      </c>
+      <c r="C1215">
+        <v>0.3336</v>
+      </c>
+      <c r="D1215">
+        <v>0.3281</v>
+      </c>
+      <c r="E1215">
+        <v>0.3291</v>
+      </c>
+      <c r="F1215">
+        <v>6665063.5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>0.329</v>
+      </c>
+      <c r="C1216">
+        <v>0.3312</v>
+      </c>
+      <c r="D1216">
+        <v>0.3286</v>
+      </c>
+      <c r="E1216">
+        <v>0.3302</v>
+      </c>
+      <c r="F1216">
+        <v>3695518</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>0.3302</v>
+      </c>
+      <c r="C1217">
+        <v>0.332</v>
+      </c>
+      <c r="D1217">
+        <v>0.3227</v>
+      </c>
+      <c r="E1217">
+        <v>0.3243</v>
+      </c>
+      <c r="F1217">
+        <v>12347933.7</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>0.3242</v>
+      </c>
+      <c r="C1218">
+        <v>0.3242</v>
+      </c>
+      <c r="D1218">
+        <v>0.32</v>
+      </c>
+      <c r="E1218">
+        <v>0.3204</v>
+      </c>
+      <c r="F1218">
+        <v>14600325.5</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>0.3204</v>
+      </c>
+      <c r="C1219">
+        <v>0.3253</v>
+      </c>
+      <c r="D1219">
+        <v>0.3195</v>
+      </c>
+      <c r="E1219">
+        <v>0.3233</v>
+      </c>
+      <c r="F1219">
+        <v>5665410.9</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>0.3233</v>
+      </c>
+      <c r="C1220">
+        <v>0.3259</v>
+      </c>
+      <c r="D1220">
+        <v>0.3221</v>
+      </c>
+      <c r="E1220">
+        <v>0.3249</v>
+      </c>
+      <c r="F1220">
+        <v>3813726</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>0.3249</v>
+      </c>
+      <c r="C1221">
+        <v>0.3262</v>
+      </c>
+      <c r="D1221">
+        <v>0.3222</v>
+      </c>
+      <c r="E1221">
+        <v>0.3231</v>
+      </c>
+      <c r="F1221">
+        <v>2980531.7</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>0.3231</v>
+      </c>
+      <c r="C1222">
+        <v>0.3236</v>
+      </c>
+      <c r="D1222">
+        <v>0.3172</v>
+      </c>
+      <c r="E1222">
+        <v>0.3185</v>
+      </c>
+      <c r="F1222">
+        <v>8693428.1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>0.3184</v>
+      </c>
+      <c r="C1223">
+        <v>0.3202</v>
+      </c>
+      <c r="D1223">
+        <v>0.305</v>
+      </c>
+      <c r="E1223">
+        <v>0.3143</v>
+      </c>
+      <c r="F1223">
+        <v>34461923.4</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>0.3143</v>
+      </c>
+      <c r="C1224">
+        <v>0.317</v>
+      </c>
+      <c r="D1224">
+        <v>0.3135</v>
+      </c>
+      <c r="E1224">
+        <v>0.3157</v>
+      </c>
+      <c r="F1224">
+        <v>10320149.7</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>0.3157</v>
+      </c>
+      <c r="C1225">
+        <v>0.3172</v>
+      </c>
+      <c r="D1225">
+        <v>0.3124</v>
+      </c>
+      <c r="E1225">
+        <v>0.313</v>
+      </c>
+      <c r="F1225">
+        <v>6063714</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>0.313</v>
+      </c>
+      <c r="C1226">
+        <v>0.3222</v>
+      </c>
+      <c r="D1226">
+        <v>0.313</v>
+      </c>
+      <c r="E1226">
+        <v>0.3212</v>
+      </c>
+      <c r="F1226">
+        <v>10501210.7</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>0.3212</v>
+      </c>
+      <c r="C1227">
+        <v>0.325</v>
+      </c>
+      <c r="D1227">
+        <v>0.321</v>
+      </c>
+      <c r="E1227">
+        <v>0.3218</v>
+      </c>
+      <c r="F1227">
+        <v>6448985.5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>0.3218</v>
+      </c>
+      <c r="C1228">
+        <v>0.322</v>
+      </c>
+      <c r="D1228">
+        <v>0.315</v>
+      </c>
+      <c r="E1228">
+        <v>0.3175</v>
+      </c>
+      <c r="F1228">
+        <v>10307194.4</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>0.3176</v>
+      </c>
+      <c r="C1229">
+        <v>0.3204</v>
+      </c>
+      <c r="D1229">
+        <v>0.3163</v>
+      </c>
+      <c r="E1229">
+        <v>0.318</v>
+      </c>
+      <c r="F1229">
+        <v>4845093.8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>0.318</v>
+      </c>
+      <c r="C1230">
+        <v>0.3262</v>
+      </c>
+      <c r="D1230">
+        <v>0.3154</v>
+      </c>
+      <c r="E1230">
+        <v>0.326</v>
+      </c>
+      <c r="F1230">
+        <v>12542757.4</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>0.3259</v>
+      </c>
+      <c r="C1231">
+        <v>0.3293</v>
+      </c>
+      <c r="D1231">
+        <v>0.3223</v>
+      </c>
+      <c r="E1231">
+        <v>0.3223</v>
+      </c>
+      <c r="F1231">
+        <v>10636847.5</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>0.3223</v>
+      </c>
+      <c r="C1232">
+        <v>0.3233</v>
+      </c>
+      <c r="D1232">
+        <v>0.321</v>
+      </c>
+      <c r="E1232">
+        <v>0.3223</v>
+      </c>
+      <c r="F1232">
+        <v>3525177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
